--- a/biology/Zoologie/Chlorospin_à_gorge_jaune/Chlorospin_à_gorge_jaune.xlsx
+++ b/biology/Zoologie/Chlorospin_à_gorge_jaune/Chlorospin_à_gorge_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chlorospin_%C3%A0_gorge_jaune</t>
+          <t>Chlorospin_à_gorge_jaune</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorospingus flavigularis
 Le Chlorospin à gorge jaune, anciennement Tangara à gorge jaune (Chlorospingus flavigularis) est une espèce de passereaux appartenant à la famille des Passerellidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chlorospin_%C3%A0_gorge_jaune</t>
+          <t>Chlorospin_à_gorge_jaune</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve en Bolivie, Colombie, Équateur, au Panama et au Pérou.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chlorospin_%C3%A0_gorge_jaune</t>
+          <t>Chlorospin_à_gorge_jaune</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans les zones humides subtropicales ou tropicales d'altitude et dans les anciennes forêts fortement dégradées.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chlorospin_%C3%A0_gorge_jaune</t>
+          <t>Chlorospin_à_gorge_jaune</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (13 févr. 2011)[1], cet oiseau est représenté par trois sous-espèces :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (13 févr. 2011), cet oiseau est représenté par trois sous-espèces :
 Chlorospingus flavigularis flavigularis ;
 Chlorospingus flavigularis hypophaeus ;
 Chlorospingus flavigularis marginatus.</t>
